--- a/交流管理/项目日报/侯凯—工作日志.xlsx
+++ b/交流管理/项目日报/侯凯—工作日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>2017年7月工作日志(考勤表）</t>
   </si>
@@ -77,7 +77,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>规则引擎学习资料不多</t>
+    <t>规则引擎学习资料不多，学习需要时间</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -284,6 +284,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,10 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -698,7 +698,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G11" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -709,14 +709,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="23">
       <c r="A2" s="1" t="s">
@@ -733,12 +733,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="23">
       <c r="A4" s="4" t="s">
@@ -770,20 +770,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26">
+    <row r="6" spans="1:6" ht="39">
       <c r="A6" s="10">
         <v>42996</v>
       </c>
       <c r="B6" s="11">
         <v>42996</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="12"/>

--- a/交流管理/项目日报/侯凯—工作日志.xlsx
+++ b/交流管理/项目日报/侯凯—工作日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>2017年7月工作日志(考勤表）</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>规则引擎学习资料不多，学习需要时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行起来黄旭的交接的项目，有时间了解异步框架</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则引常见逻辑控制，以及自定义操作符搞定完成度100%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交接的项目不知道业务，svn上有很多垃圾配置</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +710,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G10:G11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -788,16 +800,22 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="39">
       <c r="A7" s="10">
         <v>42997</v>
       </c>
       <c r="B7" s="11">
         <v>42997</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6">
